--- a/data_input/CR/CRR_Jan2023.xlsx
+++ b/data_input/CR/CRR_Jan2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cherdchai\CRR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\630039\Desktop\CRR_SICR\data_input\CR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D2C983-F2BA-4C16-BF80-6884F705B547}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB0EC4A-72F4-41FB-9C72-6C114EC38B63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="1155" windowWidth="13620" windowHeight="14505" tabRatio="601" firstSheet="2" activeTab="4" xr2:uid="{3CE3CC6B-1A2D-4FA0-867C-EE180169FB88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" firstSheet="5" activeTab="12" xr2:uid="{3CE3CC6B-1A2D-4FA0-867C-EE180169FB88}"/>
   </bookViews>
   <sheets>
     <sheet name="M &amp; L Infrastructure" sheetId="19" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="334">
   <si>
     <t>บุคคล/นิติบุคคลที่ถูกประเมิน</t>
   </si>
@@ -510,9 +510,6 @@
   </si>
   <si>
     <t xml:space="preserve">ระยะเวลาดำเนินการตั้งแต่ 5 ปี ไม่เกิน 7 ปี มีกำรต่อเนื่อง 3 ปีล่าสุด </t>
-  </si>
-  <si>
-    <t>วัตุประสงค์</t>
   </si>
   <si>
     <t>No. of years with
@@ -1346,7 +1343,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{8532E6A2-F8A3-4C00-AE1D-8DCC7F8D8CCD}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{B3D3272A-B957-4B88-BE6E-AE5CF0BBFE0B}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{B02AEE6D-E966-4C87-ABDC-3A86A82F6ACC}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{B02AEE6D-E966-4C87-ABDC-3A86A82F6ACC}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{898B3CEF-3154-43B2-AE62-58D7A7079875}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{7B3DE736-EE73-4AE3-BCC1-03DE1F6C73ED}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{478D0479-31EA-4311-A923-0EBD64B74014}" name="สถานะชั้นหนี้"/>
@@ -1384,7 +1381,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{E100862C-4AB8-40DE-B450-68DB6E98C1BD}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{AF80F883-3D02-466B-B255-2439432DB180}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{84FFCE91-5B6F-40C6-ADAE-0C828CD81679}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{84FFCE91-5B6F-40C6-ADAE-0C828CD81679}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{F38715C8-40A5-4541-B839-DF0D89A57684}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{9FD21875-4705-42B5-B815-6D0442CED130}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{2CA8375E-66B8-4A59-82E2-6199EEEE5F91}" name="สถานะชั้นหนี้"/>
@@ -1422,7 +1419,7 @@
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{0D7A27F9-CEA4-4C98-9A8F-A4172FEE71FE}" name="บุคคล/นิติบุคคลที่ถูกประเมิน"/>
     <tableColumn id="2" xr3:uid="{BFD1DE10-7903-415F-BFDF-CD08DAFB580A}" name="เลขที่ CIF"/>
-    <tableColumn id="3" xr3:uid="{01B4C01B-415A-4478-AF3C-BA2D28916D86}" name="วัตุประสงค์"/>
+    <tableColumn id="3" xr3:uid="{01B4C01B-415A-4478-AF3C-BA2D28916D86}" name="วัตถุประสงค์"/>
     <tableColumn id="4" xr3:uid="{7328C905-B294-4E1B-947E-98D969D015BB}" name="ชื่อ RM"/>
     <tableColumn id="5" xr3:uid="{7CED7E18-7245-4671-A51C-410A9C3E232A}" name="ฝ่ายงาน"/>
     <tableColumn id="6" xr3:uid="{FE3041EF-D804-45ED-9C10-BB7A9BE50366}" name="สถานะชั้นหนี้"/>
@@ -2301,7 +2298,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B2">
         <v>750805202</v>
@@ -2310,7 +2307,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -2319,10 +2316,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
@@ -2412,7 +2409,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -2424,7 +2421,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -2480,7 +2477,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -2533,7 +2530,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -2580,7 +2577,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -2618,7 +2615,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -2635,97 +2632,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2796,7 +2793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D6B51E-319C-4136-AB64-47F7F72E9146}">
   <dimension ref="A1:AX25"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AI1" sqref="AI1:AX1048576"/>
     </sheetView>
   </sheetViews>
@@ -2950,7 +2947,7 @@
         <v>46</v>
       </c>
       <c r="AL2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AM2" t="s">
         <v>48</v>
@@ -3000,7 +2997,7 @@
         <v>47</v>
       </c>
       <c r="AL3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AM3" t="s">
         <v>49</v>
@@ -3047,7 +3044,7 @@
         <v>43</v>
       </c>
       <c r="AL4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM4" t="s">
         <v>50</v>
@@ -3088,7 +3085,7 @@
         <v>44</v>
       </c>
       <c r="AL5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AN5" t="s">
         <v>54</v>
@@ -3120,7 +3117,7 @@
         <v>45</v>
       </c>
       <c r="AL6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN6" t="s">
         <v>55</v>
@@ -3131,97 +3128,97 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AL16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3287,7 +3284,7 @@
   <dimension ref="A1:BD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3345,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -3381,43 +3378,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -3428,16 +3425,16 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>254</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>255</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -3446,7 +3443,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H2" s="5">
         <v>243051</v>
@@ -3455,7 +3452,7 @@
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K2" t="s">
         <v>57</v>
@@ -3470,31 +3467,31 @@
         <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -3512,7 +3509,7 @@
         <v>137</v>
       </c>
       <c r="AC2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -3524,13 +3521,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -3545,31 +3542,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -3577,7 +3574,7 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B3">
         <v>610008283</v>
@@ -3586,7 +3583,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -3595,16 +3592,16 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
         <v>56</v>
@@ -3619,31 +3616,31 @@
         <v>75</v>
       </c>
       <c r="O3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V3" t="s">
+        <v>197</v>
+      </c>
+      <c r="W3" t="s">
         <v>198</v>
-      </c>
-      <c r="W3" t="s">
-        <v>199</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -3661,7 +3658,7 @@
         <v>140</v>
       </c>
       <c r="AC3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -3673,13 +3670,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -3694,31 +3691,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -3726,7 +3723,7 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B4">
         <v>360001458</v>
@@ -3735,7 +3732,7 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
@@ -3744,16 +3741,16 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" t="s">
         <v>56</v>
@@ -3768,31 +3765,31 @@
         <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V4" t="s">
+        <v>197</v>
+      </c>
+      <c r="W4" t="s">
         <v>198</v>
-      </c>
-      <c r="W4" t="s">
-        <v>199</v>
       </c>
       <c r="X4">
         <v>2.06</v>
@@ -3810,7 +3807,7 @@
         <v>141</v>
       </c>
       <c r="AC4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -3819,13 +3816,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -3840,31 +3837,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -3872,7 +3869,7 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5">
         <v>670007676</v>
@@ -3881,7 +3878,7 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
@@ -3890,16 +3887,16 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K5" t="s">
         <v>57</v>
@@ -3914,31 +3911,31 @@
         <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X5">
         <v>1.06</v>
@@ -3956,16 +3953,16 @@
         <v>137</v>
       </c>
       <c r="AC5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -3980,31 +3977,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -4016,34 +4013,34 @@
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -4052,102 +4049,102 @@
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H7" s="5"/>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H8" s="5"/>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H9" s="5"/>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="40:40" x14ac:dyDescent="0.2">
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4229,7 +4226,7 @@
   <dimension ref="A1:BD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC23" sqref="AC23"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4289,7 +4286,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -4325,43 +4322,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -4372,7 +4369,7 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B2">
         <v>680011846</v>
@@ -4381,7 +4378,7 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -4390,16 +4387,16 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K2" t="s">
         <v>56</v>
@@ -4414,31 +4411,31 @@
         <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V2" t="s">
+        <v>197</v>
+      </c>
+      <c r="W2" t="s">
         <v>198</v>
-      </c>
-      <c r="W2" t="s">
-        <v>199</v>
       </c>
       <c r="X2">
         <v>1.87</v>
@@ -4456,7 +4453,7 @@
         <v>137</v>
       </c>
       <c r="AC2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -4468,13 +4465,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -4489,31 +4486,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -4521,16 +4518,16 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -4539,16 +4536,16 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
         <v>56</v>
@@ -4563,31 +4560,31 @@
         <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V3" t="s">
+        <v>197</v>
+      </c>
+      <c r="W3" t="s">
         <v>198</v>
-      </c>
-      <c r="W3" t="s">
-        <v>199</v>
       </c>
       <c r="X3">
         <v>1.28</v>
@@ -4605,7 +4602,7 @@
         <v>137</v>
       </c>
       <c r="AC3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -4617,13 +4614,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -4638,31 +4635,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -4670,16 +4667,16 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" t="s">
         <v>252</v>
-      </c>
-      <c r="B4" t="s">
-        <v>253</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
@@ -4688,16 +4685,16 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K4" t="s">
         <v>56</v>
@@ -4712,31 +4709,31 @@
         <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V4" t="s">
+        <v>197</v>
+      </c>
+      <c r="W4" t="s">
         <v>198</v>
-      </c>
-      <c r="W4" t="s">
-        <v>199</v>
       </c>
       <c r="X4">
         <v>1.37</v>
@@ -4754,7 +4751,7 @@
         <v>141</v>
       </c>
       <c r="AC4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -4763,13 +4760,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -4784,31 +4781,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -4816,7 +4813,7 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B5" s="10">
         <v>530007619</v>
@@ -4825,7 +4822,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
@@ -4834,16 +4831,16 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K5" t="s">
         <v>57</v>
@@ -4858,31 +4855,31 @@
         <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S5" t="s">
+        <v>184</v>
+      </c>
+      <c r="T5" t="s">
         <v>185</v>
       </c>
-      <c r="T5" t="s">
-        <v>186</v>
-      </c>
       <c r="U5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X5">
         <v>1.73</v>
@@ -4900,16 +4897,16 @@
         <v>141</v>
       </c>
       <c r="AC5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -4924,31 +4921,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -4956,7 +4953,7 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B6" s="11">
         <v>630006473</v>
@@ -4965,7 +4962,7 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E6" t="s">
         <v>43</v>
@@ -4974,16 +4971,16 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K6" t="s">
         <v>57</v>
@@ -4998,31 +4995,31 @@
         <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S6" t="s">
+        <v>184</v>
+      </c>
+      <c r="T6" t="s">
         <v>185</v>
       </c>
-      <c r="T6" t="s">
-        <v>186</v>
-      </c>
       <c r="U6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X6">
         <v>0.23</v>
@@ -5040,40 +5037,40 @@
         <v>141</v>
       </c>
       <c r="AC6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -5081,7 +5078,7 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B7">
         <v>710810544</v>
@@ -5090,7 +5087,7 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
@@ -5099,7 +5096,7 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H7" s="5">
         <v>242958</v>
@@ -5108,7 +5105,7 @@
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K7" t="s">
         <v>57</v>
@@ -5123,31 +5120,31 @@
         <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X7">
         <v>0.61</v>
@@ -5165,24 +5162,24 @@
         <v>137</v>
       </c>
       <c r="AC7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E8" t="s">
         <v>44</v>
@@ -5197,7 +5194,7 @@
         <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" t="s">
         <v>57</v>
@@ -5212,31 +5209,31 @@
         <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T8" t="s">
+        <v>187</v>
+      </c>
+      <c r="U8" t="s">
         <v>188</v>
       </c>
-      <c r="U8" t="s">
-        <v>189</v>
-      </c>
       <c r="V8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X8">
         <v>1.4</v>
@@ -5254,24 +5251,24 @@
         <v>139</v>
       </c>
       <c r="AC8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E9" t="s">
         <v>45</v>
@@ -5280,7 +5277,7 @@
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H9" s="5">
         <v>243374</v>
@@ -5289,7 +5286,7 @@
         <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" t="s">
         <v>57</v>
@@ -5304,31 +5301,31 @@
         <v>75</v>
       </c>
       <c r="O9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X9">
         <v>1.94</v>
@@ -5346,22 +5343,22 @@
         <v>137</v>
       </c>
       <c r="AC9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" t="s">
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E10" t="s">
         <v>45</v>
@@ -5376,7 +5373,7 @@
         <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K10" t="s">
         <v>57</v>
@@ -5391,31 +5388,31 @@
         <v>76</v>
       </c>
       <c r="O10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X10">
         <v>3.41</v>
@@ -5433,24 +5430,24 @@
         <v>137</v>
       </c>
       <c r="AC10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11" t="s">
         <v>277</v>
-      </c>
-      <c r="B11" t="s">
-        <v>278</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
@@ -5459,16 +5456,16 @@
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I11" t="s">
         <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K11" t="s">
         <v>57</v>
@@ -5483,31 +5480,31 @@
         <v>76</v>
       </c>
       <c r="O11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T11" t="s">
+        <v>187</v>
+      </c>
+      <c r="U11" t="s">
         <v>188</v>
       </c>
-      <c r="U11" t="s">
-        <v>189</v>
-      </c>
       <c r="V11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X11">
         <v>1.28</v>
@@ -5525,24 +5522,24 @@
         <v>137</v>
       </c>
       <c r="AC11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E12" t="s">
         <v>43</v>
@@ -5551,16 +5548,16 @@
         <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I12" t="s">
         <v>50</v>
       </c>
       <c r="J12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K12" t="s">
         <v>57</v>
@@ -5575,31 +5572,31 @@
         <v>77</v>
       </c>
       <c r="O12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V12" t="s">
+        <v>197</v>
+      </c>
+      <c r="W12" t="s">
         <v>198</v>
-      </c>
-      <c r="W12" t="s">
-        <v>199</v>
       </c>
       <c r="X12">
         <v>2.2999999999999998</v>
@@ -5617,15 +5614,15 @@
         <v>141</v>
       </c>
       <c r="AC12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B13">
         <v>750932088</v>
@@ -5634,7 +5631,7 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E13" t="s">
         <v>45</v>
@@ -5643,16 +5640,16 @@
         <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I13" t="s">
         <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
         <v>56</v>
@@ -5667,31 +5664,31 @@
         <v>77</v>
       </c>
       <c r="O13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T13" t="s">
+        <v>187</v>
+      </c>
+      <c r="U13" t="s">
         <v>188</v>
       </c>
-      <c r="U13" t="s">
-        <v>189</v>
-      </c>
       <c r="V13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X13">
         <v>0.36</v>
@@ -5709,24 +5706,24 @@
         <v>141</v>
       </c>
       <c r="AC13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E14" t="s">
         <v>45</v>
@@ -5735,7 +5732,7 @@
         <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H14" s="5">
         <v>243405</v>
@@ -5744,7 +5741,7 @@
         <v>49</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
         <v>57</v>
@@ -5759,31 +5756,31 @@
         <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V14" t="s">
+        <v>197</v>
+      </c>
+      <c r="W14" t="s">
         <v>198</v>
-      </c>
-      <c r="W14" t="s">
-        <v>199</v>
       </c>
       <c r="X14">
         <v>3.77</v>
@@ -5801,15 +5798,15 @@
         <v>140</v>
       </c>
       <c r="AC14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B15">
         <v>750928157</v>
@@ -5818,7 +5815,7 @@
         <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E15" t="s">
         <v>45</v>
@@ -5833,7 +5830,7 @@
         <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
         <v>59</v>
@@ -5848,31 +5845,31 @@
         <v>76</v>
       </c>
       <c r="O15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X15">
         <v>3.27</v>
@@ -5890,15 +5887,15 @@
         <v>139</v>
       </c>
       <c r="AC15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B16">
         <v>750085385</v>
@@ -5907,7 +5904,7 @@
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
@@ -5916,7 +5913,7 @@
         <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H16" s="5">
         <v>243588</v>
@@ -5925,7 +5922,7 @@
         <v>49</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K16" t="s">
         <v>57</v>
@@ -5940,31 +5937,31 @@
         <v>76</v>
       </c>
       <c r="O16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V16" t="s">
+        <v>197</v>
+      </c>
+      <c r="W16" t="s">
         <v>198</v>
-      </c>
-      <c r="W16" t="s">
-        <v>199</v>
       </c>
       <c r="X16">
         <v>9.44</v>
@@ -5982,15 +5979,15 @@
         <v>139</v>
       </c>
       <c r="AC16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B17">
         <v>750293522</v>
@@ -5999,7 +5996,7 @@
         <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E17" t="s">
         <v>45</v>
@@ -6008,7 +6005,7 @@
         <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H17" s="5">
         <v>243588</v>
@@ -6017,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s">
         <v>57</v>
@@ -6032,31 +6029,31 @@
         <v>77</v>
       </c>
       <c r="O17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q17" t="s">
+        <v>174</v>
+      </c>
+      <c r="R17" t="s">
         <v>175</v>
       </c>
-      <c r="R17" t="s">
-        <v>176</v>
-      </c>
       <c r="S17" t="s">
+        <v>184</v>
+      </c>
+      <c r="T17" t="s">
         <v>185</v>
       </c>
-      <c r="T17" t="s">
-        <v>186</v>
-      </c>
       <c r="U17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V17" t="s">
+        <v>197</v>
+      </c>
+      <c r="W17" t="s">
         <v>198</v>
-      </c>
-      <c r="W17" t="s">
-        <v>199</v>
       </c>
       <c r="X17">
         <v>2.1</v>
@@ -6074,21 +6071,21 @@
         <v>138</v>
       </c>
       <c r="AC17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E18" t="s">
         <v>45</v>
@@ -6097,13 +6094,13 @@
         <v>46</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I18" t="s">
         <v>49</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
         <v>56</v>
@@ -6118,31 +6115,31 @@
         <v>76</v>
       </c>
       <c r="O18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T18" t="s">
+        <v>187</v>
+      </c>
+      <c r="U18" t="s">
         <v>188</v>
       </c>
-      <c r="U18" t="s">
-        <v>189</v>
-      </c>
       <c r="V18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X18">
         <v>3.1</v>
@@ -6160,15 +6157,15 @@
         <v>137</v>
       </c>
       <c r="AC18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B19">
         <v>730011945</v>
@@ -6177,7 +6174,7 @@
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E19" t="s">
         <v>45</v>
@@ -6186,13 +6183,13 @@
         <v>46</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I19" t="s">
         <v>49</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
         <v>56</v>
@@ -6207,31 +6204,31 @@
         <v>76</v>
       </c>
       <c r="O19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V19" t="s">
+        <v>197</v>
+      </c>
+      <c r="W19" t="s">
         <v>198</v>
-      </c>
-      <c r="W19" t="s">
-        <v>199</v>
       </c>
       <c r="X19">
         <v>1.29</v>
@@ -6249,21 +6246,21 @@
         <v>137</v>
       </c>
       <c r="AC19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E20" t="s">
         <v>45</v>
@@ -6278,7 +6275,7 @@
         <v>49</v>
       </c>
       <c r="J20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K20" t="s">
         <v>57</v>
@@ -6293,31 +6290,31 @@
         <v>75</v>
       </c>
       <c r="O20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X20">
         <v>1.98</v>
@@ -6335,21 +6332,21 @@
         <v>138</v>
       </c>
       <c r="AC20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C21" t="s">
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E21" t="s">
         <v>45</v>
@@ -6358,13 +6355,13 @@
         <v>46</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I21" t="s">
         <v>49</v>
       </c>
       <c r="J21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K21" t="s">
         <v>57</v>
@@ -6379,31 +6376,31 @@
         <v>76</v>
       </c>
       <c r="O21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T21" t="s">
+        <v>187</v>
+      </c>
+      <c r="U21" t="s">
         <v>188</v>
       </c>
-      <c r="U21" t="s">
-        <v>189</v>
-      </c>
       <c r="V21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X21">
         <v>3.57</v>
@@ -6421,15 +6418,15 @@
         <v>137</v>
       </c>
       <c r="AC21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B22">
         <v>630004734</v>
@@ -6438,7 +6435,7 @@
         <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E22" t="s">
         <v>45</v>
@@ -6447,16 +6444,16 @@
         <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I22" t="s">
         <v>49</v>
       </c>
       <c r="J22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K22" t="s">
         <v>57</v>
@@ -6471,31 +6468,31 @@
         <v>76</v>
       </c>
       <c r="O22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V22" t="s">
+        <v>197</v>
+      </c>
+      <c r="W22" t="s">
         <v>198</v>
-      </c>
-      <c r="W22" t="s">
-        <v>199</v>
       </c>
       <c r="X22">
         <v>6.47</v>
@@ -6513,24 +6510,24 @@
         <v>137</v>
       </c>
       <c r="AC22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E23" t="s">
         <v>44</v>
@@ -6539,7 +6536,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H23" s="5">
         <v>243527</v>
@@ -6548,7 +6545,7 @@
         <v>49</v>
       </c>
       <c r="J23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K23" t="s">
         <v>56</v>
@@ -6563,31 +6560,31 @@
         <v>76</v>
       </c>
       <c r="O23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V23" t="s">
+        <v>197</v>
+      </c>
+      <c r="W23" t="s">
         <v>198</v>
-      </c>
-      <c r="W23" t="s">
-        <v>199</v>
       </c>
       <c r="X23">
         <v>0.98</v>
@@ -6605,22 +6602,22 @@
         <v>138</v>
       </c>
       <c r="AC23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="H24" s="5"/>
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="H25" s="5"/>
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
@@ -6705,8 +6702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092F6DBC-97BA-4B0E-8A07-45C48EA2E8C7}">
   <dimension ref="A1:BD25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6765,7 +6762,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -6801,43 +6798,43 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>35</v>
@@ -6848,13 +6845,13 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
@@ -6863,13 +6860,13 @@
         <v>46</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K2" t="s">
         <v>57</v>
@@ -6884,31 +6881,31 @@
         <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X2">
         <v>4.1100000000000003</v>
@@ -6926,7 +6923,7 @@
         <v>140</v>
       </c>
       <c r="AC2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK2" t="s">
         <v>38</v>
@@ -6938,13 +6935,13 @@
         <v>46</v>
       </c>
       <c r="AN2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
         <v>48</v>
       </c>
       <c r="AP2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AQ2" t="s">
         <v>56</v>
@@ -6959,31 +6956,31 @@
         <v>76</v>
       </c>
       <c r="AU2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AW2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AZ2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BA2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BB2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BD2" t="s">
         <v>137</v>
@@ -6991,14 +6988,14 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" t="s">
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
@@ -7007,13 +7004,13 @@
         <v>46</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I3" t="s">
         <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K3" t="s">
         <v>57</v>
@@ -7028,31 +7025,31 @@
         <v>77</v>
       </c>
       <c r="O3" t="s">
+        <v>165</v>
+      </c>
+      <c r="P3" t="s">
         <v>166</v>
       </c>
-      <c r="P3" t="s">
-        <v>167</v>
-      </c>
       <c r="Q3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X3">
         <v>9.58</v>
@@ -7070,7 +7067,7 @@
         <v>140</v>
       </c>
       <c r="AC3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK3" t="s">
         <v>39</v>
@@ -7082,13 +7079,13 @@
         <v>47</v>
       </c>
       <c r="AN3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO3" t="s">
         <v>49</v>
       </c>
       <c r="AP3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AQ3" t="s">
         <v>57</v>
@@ -7103,31 +7100,31 @@
         <v>75</v>
       </c>
       <c r="AU3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AV3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AW3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AX3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AZ3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BA3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BC3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BD3" t="s">
         <v>138</v>
@@ -7135,13 +7132,13 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
@@ -7150,16 +7147,16 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I4" t="s">
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" t="s">
         <v>56</v>
@@ -7174,31 +7171,31 @@
         <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T4" t="s">
+        <v>187</v>
+      </c>
+      <c r="U4" t="s">
         <v>188</v>
       </c>
-      <c r="U4" t="s">
-        <v>189</v>
-      </c>
       <c r="V4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X4">
         <v>1.0900000000000001</v>
@@ -7216,7 +7213,7 @@
         <v>137</v>
       </c>
       <c r="AC4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AK4" t="s">
         <v>40</v>
@@ -7225,13 +7222,13 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO4" t="s">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ4" t="s">
         <v>58</v>
@@ -7246,31 +7243,31 @@
         <v>78</v>
       </c>
       <c r="AU4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AW4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AY4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AZ4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BA4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BB4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BC4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="s">
         <v>139</v>
@@ -7278,7 +7275,7 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B5">
         <v>750054639</v>
@@ -7287,7 +7284,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
@@ -7296,16 +7293,16 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I5" t="s">
         <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" t="s">
         <v>57</v>
@@ -7320,31 +7317,31 @@
         <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X5">
         <v>0.65</v>
@@ -7362,16 +7359,16 @@
         <v>139</v>
       </c>
       <c r="AC5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL5" t="s">
         <v>44</v>
       </c>
       <c r="AN5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
         <v>59</v>
@@ -7386,31 +7383,31 @@
         <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AX5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AY5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AZ5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BA5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BB5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BC5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="s">
         <v>140</v>
@@ -7418,7 +7415,7 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B6">
         <v>750900254</v>
@@ -7427,7 +7424,7 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
@@ -7436,16 +7433,16 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K6" t="s">
         <v>57</v>
@@ -7460,31 +7457,31 @@
         <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X6">
         <v>2.5299999999999998</v>
@@ -7502,40 +7499,40 @@
         <v>140</v>
       </c>
       <c r="AC6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL6" t="s">
         <v>45</v>
       </c>
       <c r="AN6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AW6" t="s">
         <v>72</v>
       </c>
       <c r="AX6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AY6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AZ6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BA6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BB6" t="s">
         <v>72</v>
       </c>
       <c r="BC6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BD6" t="s">
         <v>141</v>
@@ -7543,7 +7540,7 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B7">
         <v>390001766</v>
@@ -7552,7 +7549,7 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
@@ -7561,16 +7558,16 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I7" t="s">
         <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K7" t="s">
         <v>57</v>
@@ -7585,31 +7582,31 @@
         <v>77</v>
       </c>
       <c r="O7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X7">
         <v>4.53</v>
@@ -7627,18 +7624,18 @@
         <v>141</v>
       </c>
       <c r="AC7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BA7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B8">
         <v>750589526</v>
@@ -7647,7 +7644,7 @@
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E8" t="s">
         <v>43</v>
@@ -7656,13 +7653,13 @@
         <v>46</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I8" t="s">
         <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" t="s">
         <v>58</v>
@@ -7677,31 +7674,31 @@
         <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S8" t="s">
+        <v>184</v>
+      </c>
+      <c r="T8" t="s">
         <v>185</v>
       </c>
-      <c r="T8" t="s">
-        <v>186</v>
-      </c>
       <c r="U8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X8">
         <v>1.37</v>
@@ -7719,15 +7716,15 @@
         <v>137</v>
       </c>
       <c r="AC8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AN8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B9">
         <v>690001351</v>
@@ -7736,7 +7733,7 @@
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E9" t="s">
         <v>45</v>
@@ -7745,16 +7742,16 @@
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I9" t="s">
         <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" t="s">
         <v>57</v>
@@ -7769,31 +7766,31 @@
         <v>76</v>
       </c>
       <c r="O9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V9" t="s">
+        <v>197</v>
+      </c>
+      <c r="W9" t="s">
         <v>198</v>
-      </c>
-      <c r="W9" t="s">
-        <v>199</v>
       </c>
       <c r="X9">
         <v>1.29</v>
@@ -7811,99 +7808,99 @@
         <v>137</v>
       </c>
       <c r="AC9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H10" s="5"/>
       <c r="AN10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H11" s="5"/>
       <c r="AN11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H12" s="5"/>
       <c r="AN12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="H13" s="5"/>
       <c r="AN13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H14" s="5"/>
       <c r="AN14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H15" s="5"/>
       <c r="AN15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="H16" s="5"/>
       <c r="AN16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H17" s="5"/>
       <c r="AN17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AN25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -8171,7 +8168,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -8227,7 +8224,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -8280,7 +8277,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -8327,7 +8324,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -8365,7 +8362,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -8382,97 +8379,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -8722,7 +8719,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B2">
         <v>750285641</v>
@@ -8731,7 +8728,7 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
@@ -8740,10 +8737,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
@@ -8833,7 +8830,7 @@
         <v>138</v>
       </c>
       <c r="AL2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -8845,7 +8842,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -8901,7 +8898,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -8954,7 +8951,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -9001,7 +8998,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -9039,7 +9036,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -9056,97 +9053,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -9396,7 +9393,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B2">
         <v>750748113</v>
@@ -9405,7 +9402,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
@@ -9414,10 +9411,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
@@ -9507,7 +9504,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -9519,7 +9516,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -9575,7 +9572,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -9628,7 +9625,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -9675,7 +9672,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -9713,7 +9710,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -9730,97 +9727,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -9891,8 +9888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A37DC6-624E-4101-BB6E-C6A6EDED4EED}">
   <dimension ref="A1:BN25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL4" sqref="AL4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10072,13 +10069,13 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -10162,22 +10159,22 @@
         <v>0.85</v>
       </c>
       <c r="AG2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH2" t="s">
         <v>234</v>
       </c>
-      <c r="AH2" t="s">
-        <v>235</v>
-      </c>
       <c r="AI2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>234</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>235</v>
       </c>
       <c r="AK2" t="s">
         <v>139</v>
       </c>
       <c r="AL2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -10189,7 +10186,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -10236,13 +10233,13 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E3" t="s">
         <v>42</v>
@@ -10251,7 +10248,7 @@
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
@@ -10341,7 +10338,7 @@
         <v>141</v>
       </c>
       <c r="AL3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -10353,7 +10350,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -10400,7 +10397,7 @@
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B4">
         <v>750780026</v>
@@ -10409,7 +10406,7 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E4" t="s">
         <v>42</v>
@@ -10418,7 +10415,7 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H4" s="5">
         <v>243405</v>
@@ -10511,7 +10508,7 @@
         <v>141</v>
       </c>
       <c r="AL4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AW4" t="s">
         <v>40</v>
@@ -10520,7 +10517,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -10567,7 +10564,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -10605,7 +10602,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -10622,97 +10619,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -10962,7 +10959,7 @@
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B2">
         <v>750775740</v>
@@ -10971,7 +10968,7 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
@@ -10980,7 +10977,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H2" s="5">
         <v>243081</v>
@@ -11073,7 +11070,7 @@
         <v>141</v>
       </c>
       <c r="AL2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>38</v>
@@ -11085,7 +11082,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -11132,7 +11129,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B3">
         <v>750797871</v>
@@ -11141,7 +11138,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
@@ -11150,10 +11147,10 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
@@ -11243,7 +11240,7 @@
         <v>141</v>
       </c>
       <c r="AL3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AW3" t="s">
         <v>39</v>
@@ -11255,7 +11252,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -11308,7 +11305,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -11355,7 +11352,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -11393,7 +11390,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -11410,97 +11407,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -11728,7 +11725,7 @@
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2">
         <v>750443343</v>
@@ -11737,7 +11734,7 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
@@ -11746,10 +11743,10 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
@@ -11827,7 +11824,7 @@
         <v>137</v>
       </c>
       <c r="AH2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>38</v>
@@ -11839,7 +11836,7 @@
         <v>46</v>
       </c>
       <c r="AQ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AR2" t="s">
         <v>48</v>
@@ -11877,7 +11874,7 @@
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B3">
         <v>750326504</v>
@@ -11886,7 +11883,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E3" t="s">
         <v>43</v>
@@ -11895,10 +11892,10 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I3" t="s">
         <v>48</v>
@@ -11976,7 +11973,7 @@
         <v>137</v>
       </c>
       <c r="AH3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AN3" t="s">
         <v>39</v>
@@ -11988,7 +11985,7 @@
         <v>47</v>
       </c>
       <c r="AQ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AR3" t="s">
         <v>49</v>
@@ -12026,7 +12023,7 @@
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B4">
         <v>750847672</v>
@@ -12035,7 +12032,7 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -12044,7 +12041,7 @@
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H4" s="5">
         <v>242958</v>
@@ -12125,7 +12122,7 @@
         <v>138</v>
       </c>
       <c r="AH4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AN4" t="s">
         <v>40</v>
@@ -12134,7 +12131,7 @@
         <v>43</v>
       </c>
       <c r="AQ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR4" t="s">
         <v>50</v>
@@ -12169,7 +12166,7 @@
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B5">
         <v>750245930</v>
@@ -12178,7 +12175,7 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
@@ -12187,10 +12184,10 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I5" t="s">
         <v>50</v>
@@ -12268,13 +12265,13 @@
         <v>137</v>
       </c>
       <c r="AH5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AO5" t="s">
         <v>44</v>
       </c>
       <c r="AQ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS5" t="s">
         <v>54</v>
@@ -12306,7 +12303,7 @@
         <v>45</v>
       </c>
       <c r="AQ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS6" t="s">
         <v>55</v>
@@ -12320,97 +12317,97 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -12629,13 +12626,13 @@
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
@@ -12644,7 +12641,7 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H2" s="5">
         <v>243374</v>
@@ -12725,7 +12722,7 @@
         <v>138</v>
       </c>
       <c r="AH2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN2" s="1" t="s">
         <v>38</v>
@@ -12737,7 +12734,7 @@
         <v>46</v>
       </c>
       <c r="AQ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AR2" t="s">
         <v>48</v>
@@ -12775,7 +12772,7 @@
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B3">
         <v>540004054</v>
@@ -12784,7 +12781,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -12793,10 +12790,10 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
@@ -12874,7 +12871,7 @@
         <v>141</v>
       </c>
       <c r="AH3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AN3" t="s">
         <v>39</v>
@@ -12886,7 +12883,7 @@
         <v>47</v>
       </c>
       <c r="AQ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AR3" t="s">
         <v>49</v>
@@ -12930,7 +12927,7 @@
         <v>43</v>
       </c>
       <c r="AQ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR4" t="s">
         <v>50</v>
@@ -12968,7 +12965,7 @@
         <v>44</v>
       </c>
       <c r="AQ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS5" t="s">
         <v>54</v>
@@ -13000,7 +12997,7 @@
         <v>45</v>
       </c>
       <c r="AQ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS6" t="s">
         <v>55</v>
@@ -13014,97 +13011,97 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="AQ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="43:43" x14ac:dyDescent="0.2">
       <c r="AQ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -13352,7 +13349,7 @@
         <v>46</v>
       </c>
       <c r="AZ2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA2" t="s">
         <v>48</v>
@@ -13408,7 +13405,7 @@
         <v>47</v>
       </c>
       <c r="AZ3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA3" t="s">
         <v>49</v>
@@ -13461,7 +13458,7 @@
         <v>43</v>
       </c>
       <c r="AZ4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BA4" t="s">
         <v>50</v>
@@ -13508,7 +13505,7 @@
         <v>44</v>
       </c>
       <c r="AZ5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" t="s">
         <v>54</v>
@@ -13543,7 +13540,7 @@
         <v>45</v>
       </c>
       <c r="AZ6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB6" t="s">
         <v>55</v>
@@ -13557,97 +13554,97 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="AZ16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="52:52" x14ac:dyDescent="0.2">
       <c r="AZ25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
